--- a/src/main/java/com/testdata/Priceupdate.xlsx
+++ b/src/main/java/com/testdata/Priceupdate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">productone</t>
   </si>
   <si>
+    <t xml:space="preserve">productonestatus</t>
+  </si>
+  <si>
     <t xml:space="preserve">producttwo</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">Megalaya</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -257,20 +263,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.23" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.01" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="24.66015625" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.58" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="17.78" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="18.2" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,565 +296,606 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>30990</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>38869</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>39709</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>30990</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="E3" s="3" t="n">
         <v>39169</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F3" s="3" t="n">
         <v>40009</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>31899</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>33899</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="E4" s="3" t="n">
         <v>39339</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" s="3" t="n">
         <v>40179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>33549</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="D5" s="3" t="n">
         <v>37139</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="E5" s="3" t="n">
         <v>41539</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="F5" s="3" t="n">
         <v>42379</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>30990</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="E6" s="3" t="n">
         <v>39051</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="F6" s="3" t="n">
         <v>39891</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>29715</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="n">
         <v>31715</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>37705</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="F7" s="3" t="n">
         <v>38545</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>31299</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="n">
         <v>34824</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="E8" s="3" t="n">
         <v>39224</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="F8" s="3" t="n">
         <v>40064</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>31299</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="n">
         <v>34824</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="E9" s="3" t="n">
         <v>39224</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="F9" s="3" t="n">
         <v>40064</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="E10" s="3" t="n">
         <v>38265</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="F10" s="3" t="n">
         <v>39105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="E11" s="3" t="n">
         <v>37975</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="F11" s="3" t="n">
         <v>38815</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="n">
         <v>31837</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="E12" s="3" t="n">
         <v>38087</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="F12" s="3" t="n">
         <v>38927</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="E13" s="3" t="n">
         <v>38143</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="F13" s="3" t="n">
         <v>38983</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="E14" s="3" t="n">
         <v>38774</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="F14" s="3" t="n">
         <v>39614</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="E15" s="3" t="n">
         <v>38523</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="F15" s="3" t="n">
         <v>39363</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="E16" s="3" t="n">
         <v>38013</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="F16" s="3" t="n">
         <v>38853</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="E17" s="3" t="n">
         <v>38391</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="F17" s="3" t="n">
         <v>39231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="E18" s="3" t="n">
         <v>38363</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="F18" s="3" t="n">
         <v>39203</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="E19" s="3" t="n">
         <v>39257</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="F19" s="3" t="n">
         <v>40097</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="E20" s="3" t="n">
         <v>38946</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="F20" s="3" t="n">
         <v>39786</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="E21" s="3" t="n">
         <v>38653</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="F21" s="3" t="n">
         <v>39493</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="E22" s="3" t="n">
         <v>38627</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="F22" s="3" t="n">
         <v>39467</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="E23" s="3" t="n">
         <v>38313</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="F23" s="3" t="n">
         <v>39153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="n">
         <v>32990</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="E24" s="3" t="n">
         <v>38678</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="F24" s="3" t="n">
         <v>39518</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="n">
         <v>32590</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="E25" s="3" t="n">
         <v>39416</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="F25" s="3" t="n">
         <v>40256</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="n">
         <v>32590</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="E26" s="3" t="n">
         <v>39390</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="F26" s="3" t="n">
         <v>40230</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="n">
         <v>31990</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="E27" s="3" t="n">
         <v>38478</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="F27" s="3" t="n">
         <v>39318</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="n">
         <v>33990</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="E28" s="3" t="n">
         <v>40117</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="F28" s="3" t="n">
         <v>40957</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="n">
         <v>33990</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="E29" s="3" t="n">
         <v>39650</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="F29" s="3" t="n">
         <v>40490</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="n">
         <v>33990</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="E30" s="3" t="n">
         <v>39646</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="F30" s="3" t="n">
         <v>40486</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="n">
         <v>33990</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="E31" s="3" t="n">
         <v>39671</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="F31" s="3" t="n">
         <v>40511</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="n">
         <v>33990</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="E32" s="3" t="n">
         <v>39661</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="F32" s="3" t="n">
         <v>40501</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="n">
         <v>33990</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="E33" s="3" t="n">
         <v>39650</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="F33" s="3" t="n">
         <v>40490</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="n">
         <v>33990</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="E34" s="3" t="n">
         <v>39671</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="F34" s="3" t="n">
         <v>40511</v>
       </c>
     </row>

--- a/src/main/java/com/testdata/Priceupdate.xlsx
+++ b/src/main/java/com/testdata/Priceupdate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -40,7 +40,10 @@
     <t xml:space="preserve">producfour</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamil nadu</t>
+    <t xml:space="preserve">Tamil Nadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passed</t>
   </si>
   <si>
     <t xml:space="preserve">Karnataka</t>
@@ -55,10 +58,10 @@
     <t xml:space="preserve">Pondicherry</t>
   </si>
   <si>
-    <t xml:space="preserve">Andaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andhra pradesh</t>
+    <t xml:space="preserve">Andaman Nicobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andhra Pradesh</t>
   </si>
   <si>
     <t xml:space="preserve">Telangana</t>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">Silvasa</t>
   </si>
   <si>
+    <t xml:space="preserve">failed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maharashtra</t>
   </si>
   <si>
@@ -82,7 +88,7 @@
     <t xml:space="preserve">Haryana</t>
   </si>
   <si>
-    <t xml:space="preserve">Uttarpradesh</t>
+    <t xml:space="preserve">Uttar Pradesh</t>
   </si>
   <si>
     <t xml:space="preserve">Uttarkhand</t>
@@ -91,31 +97,31 @@
     <t xml:space="preserve">Punjab</t>
   </si>
   <si>
-    <t xml:space="preserve">Jammu &amp; kashmir</t>
+    <t xml:space="preserve">Jammu &amp; Kashmir</t>
   </si>
   <si>
     <t xml:space="preserve">Chandigarh</t>
   </si>
   <si>
-    <t xml:space="preserve">Himachalpradesh</t>
+    <t xml:space="preserve">Himachal Pradesh</t>
   </si>
   <si>
     <t xml:space="preserve">Chattisgarh</t>
   </si>
   <si>
-    <t xml:space="preserve">Madhyapradesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West bengal</t>
+    <t xml:space="preserve">Madhya Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bengal</t>
   </si>
   <si>
     <t xml:space="preserve">Bihar</t>
   </si>
   <si>
-    <t xml:space="preserve">Jarkhand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orissa</t>
+    <t xml:space="preserve">Jharkhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odisha</t>
   </si>
   <si>
     <t xml:space="preserve">Assam</t>
@@ -127,7 +133,7 @@
     <t xml:space="preserve">Tripura</t>
   </si>
   <si>
-    <t xml:space="preserve">Arunachal pradesh</t>
+    <t xml:space="preserve">Arunachal Pradesh</t>
   </si>
   <si>
     <t xml:space="preserve">Nagaland</t>
@@ -136,10 +142,7 @@
     <t xml:space="preserve">Manipur</t>
   </si>
   <si>
-    <t xml:space="preserve">Megalaya</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t xml:space="preserve">Meghalaya</t>
   </si>
 </sst>
 </file>
@@ -266,18 +269,18 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.23" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.01" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="24.66015625" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.58" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="17.78" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="18.2" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,8 +310,8 @@
       <c r="B2" s="2" t="n">
         <v>30990</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>32990</v>
@@ -322,13 +325,13 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>30990</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>32990</v>
@@ -342,13 +345,13 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>31899</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>33899</v>
@@ -362,11 +365,14 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>33549</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="3" t="n">
         <v>37139</v>
       </c>
@@ -379,12 +385,14 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>30990</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="3" t="n">
         <v>32990</v>
       </c>
@@ -397,12 +405,14 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>29715</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="3" t="n">
         <v>31715</v>
       </c>
@@ -415,12 +425,14 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>31299</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="3" t="n">
         <v>34824</v>
       </c>
@@ -433,12 +445,14 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>31299</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="3" t="n">
         <v>34824</v>
       </c>
@@ -451,12 +465,14 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="3" t="n">
         <v>31990</v>
       </c>
@@ -469,12 +485,14 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="3" t="n">
         <v>31990</v>
       </c>
@@ -487,12 +505,14 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="3" t="n">
         <v>31837</v>
       </c>
@@ -505,12 +525,14 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="3" t="n">
         <v>31990</v>
       </c>
@@ -523,12 +545,14 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="3" t="n">
         <v>32990</v>
       </c>
@@ -541,12 +565,14 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="3" t="n">
         <v>32990</v>
       </c>
@@ -559,12 +585,14 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="3" t="n">
         <v>31990</v>
       </c>
@@ -577,12 +605,14 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D17" s="3" t="n">
         <v>31990</v>
       </c>
@@ -595,12 +625,14 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D18" s="3" t="n">
         <v>32990</v>
       </c>
@@ -613,12 +645,14 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="3" t="n">
         <v>32990</v>
       </c>
@@ -631,12 +665,14 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="3" t="n">
         <v>32990</v>
       </c>
@@ -649,12 +685,14 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D21" s="3" t="n">
         <v>32990</v>
       </c>
@@ -667,12 +705,14 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D22" s="3" t="n">
         <v>31990</v>
       </c>
@@ -685,12 +725,14 @@
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D23" s="3" t="n">
         <v>31990</v>
       </c>
@@ -703,12 +745,14 @@
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D24" s="3" t="n">
         <v>32990</v>
       </c>
@@ -721,12 +765,14 @@
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D25" s="3" t="n">
         <v>32590</v>
       </c>
@@ -739,12 +785,14 @@
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D26" s="3" t="n">
         <v>32590</v>
       </c>
@@ -757,12 +805,14 @@
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D27" s="3" t="n">
         <v>31990</v>
       </c>
@@ -775,12 +825,14 @@
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D28" s="3" t="n">
         <v>33990</v>
       </c>
@@ -793,12 +845,14 @@
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D29" s="3" t="n">
         <v>33990</v>
       </c>
@@ -811,12 +865,14 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D30" s="3" t="n">
         <v>33990</v>
       </c>
@@ -829,12 +885,14 @@
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D31" s="3" t="n">
         <v>33990</v>
       </c>
@@ -847,12 +905,14 @@
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D32" s="3" t="n">
         <v>33990</v>
       </c>
@@ -865,12 +925,14 @@
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D33" s="3" t="n">
         <v>33990</v>
       </c>
@@ -883,12 +945,14 @@
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>29990</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D34" s="3" t="n">
         <v>33990</v>
       </c>

--- a/src/main/java/com/testdata/Priceupdate.xlsx
+++ b/src/main/java/com/testdata/Priceupdate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve">Meghalaya</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
@@ -274,13 +280,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.23" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.01" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="23.8828125" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.58" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="17.78" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="18.2" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,7 +317,7 @@
         <v>30990</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>32990</v>
@@ -331,7 +337,7 @@
         <v>30990</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>32990</v>
@@ -351,7 +357,7 @@
         <v>31899</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>33899</v>
@@ -371,7 +377,7 @@
         <v>33549</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>37139</v>
@@ -391,7 +397,7 @@
         <v>30990</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>32990</v>
@@ -411,7 +417,7 @@
         <v>29715</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>31715</v>
@@ -431,7 +437,7 @@
         <v>31299</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34824</v>
@@ -451,7 +457,7 @@
         <v>31299</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>34824</v>
@@ -471,7 +477,7 @@
         <v>29990</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>31990</v>
@@ -491,7 +497,7 @@
         <v>29990</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>31990</v>
@@ -511,7 +517,7 @@
         <v>29990</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>31837</v>
@@ -531,7 +537,7 @@
         <v>29990</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>31990</v>
@@ -551,7 +557,7 @@
         <v>29990</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>32990</v>
@@ -571,7 +577,7 @@
         <v>29990</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>32990</v>
@@ -591,7 +597,7 @@
         <v>29990</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>31990</v>
@@ -611,7 +617,7 @@
         <v>29990</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>31990</v>
@@ -631,7 +637,7 @@
         <v>29990</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>32990</v>
@@ -651,7 +657,7 @@
         <v>29990</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>32990</v>
@@ -671,7 +677,7 @@
         <v>29990</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>32990</v>
@@ -691,7 +697,7 @@
         <v>29990</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>32990</v>
@@ -711,7 +717,7 @@
         <v>29990</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>31990</v>
@@ -731,7 +737,7 @@
         <v>29990</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>31990</v>
@@ -751,7 +757,7 @@
         <v>29990</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>32990</v>
@@ -771,7 +777,7 @@
         <v>29990</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>32590</v>
@@ -791,7 +797,7 @@
         <v>29990</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>32590</v>
@@ -811,7 +817,7 @@
         <v>29990</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>31990</v>
@@ -831,7 +837,7 @@
         <v>29990</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>33990</v>
@@ -851,7 +857,7 @@
         <v>29990</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>33990</v>
@@ -871,7 +877,7 @@
         <v>29990</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>33990</v>
@@ -891,7 +897,7 @@
         <v>29990</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>33990</v>
@@ -911,7 +917,7 @@
         <v>29990</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>33990</v>
@@ -931,7 +937,7 @@
         <v>29990</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>33990</v>
@@ -951,7 +957,7 @@
         <v>29990</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>33990</v>

--- a/src/main/java/com/testdata/Priceupdate.xlsx
+++ b/src/main/java/com/testdata/Priceupdate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="43">
   <si>
     <t xml:space="preserve">State</t>
   </si>
